--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:51:11+00:00</t>
+    <t>2023-06-22T17:12:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="292">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T17:12:55+00:00</t>
+    <t>2023-08-10T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -327,6 +327,12 @@
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-HealthcareService.offeredIn}
 </t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2178,10 +2184,10 @@
         <v>98</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2241,13 +2247,13 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>36</v>
@@ -2255,14 +2261,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2284,16 +2290,16 @@
         <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>36</v>
@@ -2342,7 +2348,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2365,10 +2371,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2391,13 +2397,13 @@
         <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2448,7 +2454,7 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -2463,18 +2469,18 @@
         <v>56</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2497,23 +2503,23 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>36</v>
@@ -2558,7 +2564,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
@@ -2573,18 +2579,18 @@
         <v>56</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2607,16 +2613,16 @@
         <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2666,7 +2672,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
@@ -2681,7 +2687,7 @@
         <v>56</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>36</v>
@@ -2689,14 +2695,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2715,16 +2721,16 @@
         <v>45</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2735,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>36</v>
@@ -2750,13 +2756,13 @@
         <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -2774,7 +2780,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -2789,22 +2795,22 @@
         <v>56</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2823,13 +2829,13 @@
         <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2856,13 +2862,13 @@
         <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2880,7 +2886,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -2895,7 +2901,7 @@
         <v>56</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>36</v>
@@ -2903,10 +2909,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2929,13 +2935,13 @@
         <v>45</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2965,10 +2971,10 @@
         <v>68</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2986,7 +2992,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3001,7 +3007,7 @@
         <v>56</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>36</v>
@@ -3009,10 +3015,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3035,13 +3041,13 @@
         <v>45</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3092,7 +3098,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -3107,18 +3113,18 @@
         <v>56</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3141,13 +3147,13 @@
         <v>45</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3198,7 +3204,7 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
@@ -3213,7 +3219,7 @@
         <v>56</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>36</v>
@@ -3221,10 +3227,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3247,16 +3253,16 @@
         <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3306,7 +3312,7 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
@@ -3321,7 +3327,7 @@
         <v>56</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>36</v>
@@ -3329,10 +3335,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3355,13 +3361,13 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3412,7 +3418,7 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
@@ -3427,7 +3433,7 @@
         <v>56</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -3435,10 +3441,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3461,13 +3467,13 @@
         <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3518,7 +3524,7 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
@@ -3533,7 +3539,7 @@
         <v>56</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>36</v>
@@ -3541,10 +3547,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3567,16 +3573,16 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3626,7 +3632,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3641,7 +3647,7 @@
         <v>56</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>36</v>
@@ -3649,10 +3655,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3675,16 +3681,16 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3734,7 +3740,7 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
@@ -3749,7 +3755,7 @@
         <v>56</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
@@ -3757,10 +3763,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3783,16 +3789,16 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3818,31 +3824,31 @@
         <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y24" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -3857,7 +3863,7 @@
         <v>56</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>36</v>
@@ -3865,10 +3871,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3891,13 +3897,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3948,7 +3954,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -3971,10 +3977,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3997,13 +4003,13 @@
         <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4054,7 +4060,7 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
@@ -4069,7 +4075,7 @@
         <v>36</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>36</v>
@@ -4077,14 +4083,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4106,13 +4112,13 @@
         <v>89</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4162,7 +4168,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -4177,7 +4183,7 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>36</v>
@@ -4185,14 +4191,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4214,16 +4220,16 @@
         <v>89</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>36</v>
@@ -4272,7 +4278,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -4295,10 +4301,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4321,13 +4327,13 @@
         <v>36</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4354,10 +4360,10 @@
         <v>36</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>36</v>
@@ -4378,7 +4384,7 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
@@ -4393,7 +4399,7 @@
         <v>56</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>36</v>
@@ -4401,10 +4407,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4427,16 +4433,16 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4486,7 +4492,7 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
@@ -4501,7 +4507,7 @@
         <v>56</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>36</v>
@@ -4509,10 +4515,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4535,16 +4541,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4570,13 +4576,13 @@
         <v>36</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>36</v>
@@ -4594,7 +4600,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4609,7 +4615,7 @@
         <v>56</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>36</v>
@@ -4617,10 +4623,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4643,16 +4649,16 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4678,10 +4684,10 @@
         <v>36</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>36</v>
@@ -4702,7 +4708,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -4717,7 +4723,7 @@
         <v>56</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>36</v>
@@ -4725,10 +4731,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4751,16 +4757,16 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4810,7 +4816,7 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -4833,10 +4839,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4859,13 +4865,13 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4892,13 +4898,13 @@
         <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>36</v>
@@ -4916,7 +4922,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -4931,7 +4937,7 @@
         <v>56</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>36</v>
@@ -4939,10 +4945,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4965,13 +4971,13 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5022,7 +5028,7 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
@@ -5037,7 +5043,7 @@
         <v>56</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>36</v>
@@ -5045,10 +5051,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5071,16 +5077,16 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5130,7 +5136,7 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -5145,7 +5151,7 @@
         <v>56</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>36</v>
@@ -5153,10 +5159,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5179,13 +5185,13 @@
         <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5236,7 +5242,7 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
@@ -5251,7 +5257,7 @@
         <v>36</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>36</v>
@@ -5259,14 +5265,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5288,13 +5294,13 @@
         <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5344,7 +5350,7 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -5359,7 +5365,7 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>36</v>
@@ -5367,14 +5373,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5396,16 +5402,16 @@
         <v>89</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>36</v>
@@ -5454,7 +5460,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -5477,10 +5483,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5506,10 +5512,10 @@
         <v>64</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5536,13 +5542,13 @@
         <v>36</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>36</v>
@@ -5560,7 +5566,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -5575,7 +5581,7 @@
         <v>56</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>36</v>
@@ -5583,10 +5589,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5609,13 +5615,13 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5666,7 +5672,7 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
@@ -5681,7 +5687,7 @@
         <v>56</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>36</v>
@@ -5689,10 +5695,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5715,16 +5721,16 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5774,7 +5780,7 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
@@ -5789,7 +5795,7 @@
         <v>56</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>36</v>
@@ -5797,10 +5803,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5823,16 +5829,16 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5882,7 +5888,7 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
@@ -5897,7 +5903,7 @@
         <v>56</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>36</v>
@@ -5905,10 +5911,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5931,13 +5937,13 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5988,7 +5994,7 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
@@ -6003,7 +6009,7 @@
         <v>56</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>36</v>
@@ -6011,10 +6017,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6037,13 +6043,13 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6094,7 +6100,7 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
@@ -6109,7 +6115,7 @@
         <v>36</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>36</v>
@@ -6117,14 +6123,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6146,13 +6152,13 @@
         <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6202,7 +6208,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -6217,7 +6223,7 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>36</v>
@@ -6225,14 +6231,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6254,16 +6260,16 @@
         <v>89</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>36</v>
@@ -6312,7 +6318,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -6335,10 +6341,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6361,13 +6367,13 @@
         <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6418,7 +6424,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>44</v>
@@ -6433,7 +6439,7 @@
         <v>56</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>36</v>
@@ -6441,10 +6447,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6467,13 +6473,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6524,7 +6530,7 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
@@ -6539,7 +6545,7 @@
         <v>56</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>36</v>
@@ -6547,10 +6553,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6573,13 +6579,13 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6630,7 +6636,7 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
@@ -6645,7 +6651,7 @@
         <v>56</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>36</v>
@@ -6653,10 +6659,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6679,13 +6685,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6736,7 +6742,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -6751,7 +6757,7 @@
         <v>56</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:02:33+00:00</t>
+    <t>2023-08-11T20:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T18:39:03+00:00</t>
+    <t>2023-08-22T18:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>The details of a healthcare service available at a location.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>act[classCode=ACT][moodCode=DEF]</t>
@@ -1392,10 +1396,10 @@
         <v>36</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>36</v>
@@ -1403,10 +1407,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1417,7 +1421,7 @@
         <v>37</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>36</v>
@@ -1426,19 +1430,19 @@
         <v>36</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1488,13 +1492,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>36</v>
@@ -1511,10 +1515,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1525,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>36</v>
@@ -1534,16 +1538,16 @@
         <v>36</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1594,19 +1598,19 @@
         <v>36</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>36</v>
@@ -1617,10 +1621,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1631,28 +1635,28 @@
         <v>37</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1702,19 +1706,19 @@
         <v>36</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>36</v>
@@ -1725,10 +1729,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1739,7 +1743,7 @@
         <v>37</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>36</v>
@@ -1751,16 +1755,16 @@
         <v>36</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1786,13 +1790,13 @@
         <v>36</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -1810,19 +1814,19 @@
         <v>36</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>36</v>
@@ -1833,21 +1837,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>36</v>
@@ -1859,16 +1863,16 @@
         <v>36</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1918,22 +1922,22 @@
         <v>36</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>36</v>
@@ -1941,14 +1945,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -1967,16 +1971,16 @@
         <v>36</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2026,7 +2030,7 @@
         <v>36</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>37</v>
@@ -2041,7 +2045,7 @@
         <v>36</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>36</v>
@@ -2049,10 +2053,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2075,13 +2079,13 @@
         <v>36</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2120,17 +2124,17 @@
         <v>36</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>37</v>
@@ -2142,7 +2146,7 @@
         <v>36</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>36</v>
@@ -2153,13 +2157,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>36</v>
@@ -2172,7 +2176,7 @@
         <v>38</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>36</v>
@@ -2181,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2238,7 +2242,7 @@
         <v>36</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>37</v>
@@ -2247,13 +2251,13 @@
         <v>38</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>36</v>
@@ -2261,14 +2265,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2281,25 +2285,25 @@
         <v>36</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>36</v>
@@ -2348,7 +2352,7 @@
         <v>36</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>37</v>
@@ -2360,10 +2364,10 @@
         <v>36</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>36</v>
@@ -2371,10 +2375,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2394,16 +2398,16 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2454,7 +2458,7 @@
         <v>36</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>37</v>
@@ -2466,21 +2470,21 @@
         <v>36</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2491,35 +2495,35 @@
         <v>37</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="Q12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>36</v>
@@ -2564,33 +2568,33 @@
         <v>36</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2598,31 +2602,31 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2672,22 +2676,22 @@
         <v>36</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>36</v>
@@ -2695,14 +2699,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -2712,25 +2716,25 @@
         <v>38</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2741,7 +2745,7 @@
         <v>36</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>36</v>
@@ -2756,13 +2760,13 @@
         <v>36</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -2780,7 +2784,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>37</v>
@@ -2792,50 +2796,50 @@
         <v>36</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2862,13 +2866,13 @@
         <v>36</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2886,7 +2890,7 @@
         <v>36</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>37</v>
@@ -2898,10 +2902,10 @@
         <v>36</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>36</v>
@@ -2909,10 +2913,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2932,16 +2936,16 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2968,13 +2972,13 @@
         <v>36</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2992,7 +2996,7 @@
         <v>36</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>37</v>
@@ -3004,10 +3008,10 @@
         <v>36</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>36</v>
@@ -3015,10 +3019,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3038,16 +3042,16 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3098,7 +3102,7 @@
         <v>36</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>37</v>
@@ -3110,21 +3114,21 @@
         <v>36</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3135,25 +3139,25 @@
         <v>37</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3204,22 +3208,22 @@
         <v>36</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>36</v>
@@ -3227,10 +3231,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3241,28 +3245,28 @@
         <v>37</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3312,22 +3316,22 @@
         <v>36</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>36</v>
@@ -3335,10 +3339,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3349,10 +3353,10 @@
         <v>37</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>36</v>
@@ -3361,13 +3365,13 @@
         <v>36</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3418,22 +3422,22 @@
         <v>36</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>36</v>
@@ -3441,10 +3445,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3455,7 +3459,7 @@
         <v>37</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>36</v>
@@ -3464,16 +3468,16 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3524,22 +3528,22 @@
         <v>36</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>36</v>
@@ -3547,10 +3551,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3573,16 +3577,16 @@
         <v>36</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3632,7 +3636,7 @@
         <v>36</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>37</v>
@@ -3644,10 +3648,10 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>36</v>
@@ -3655,10 +3659,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3672,7 +3676,7 @@
         <v>38</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>36</v>
@@ -3681,16 +3685,16 @@
         <v>36</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3740,7 +3744,7 @@
         <v>36</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>37</v>
@@ -3752,10 +3756,10 @@
         <v>36</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>36</v>
@@ -3763,10 +3767,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3789,16 +3793,16 @@
         <v>36</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3824,13 +3828,13 @@
         <v>36</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>36</v>
@@ -3848,7 +3852,7 @@
         <v>36</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>37</v>
@@ -3860,10 +3864,10 @@
         <v>36</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>36</v>
@@ -3871,10 +3875,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3897,13 +3901,13 @@
         <v>36</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3954,7 +3958,7 @@
         <v>36</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>37</v>
@@ -3966,7 +3970,7 @@
         <v>36</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>36</v>
@@ -3977,10 +3981,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3991,7 +3995,7 @@
         <v>37</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>36</v>
@@ -4003,13 +4007,13 @@
         <v>36</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4060,13 +4064,13 @@
         <v>36</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>36</v>
@@ -4075,7 +4079,7 @@
         <v>36</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>36</v>
@@ -4083,14 +4087,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4109,16 +4113,16 @@
         <v>36</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4168,7 +4172,7 @@
         <v>36</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>37</v>
@@ -4180,10 +4184,10 @@
         <v>36</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>36</v>
@@ -4191,14 +4195,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4211,25 +4215,25 @@
         <v>36</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>36</v>
@@ -4278,7 +4282,7 @@
         <v>36</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>37</v>
@@ -4290,10 +4294,10 @@
         <v>36</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>36</v>
@@ -4301,10 +4305,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4315,7 +4319,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>36</v>
@@ -4327,13 +4331,13 @@
         <v>36</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4360,10 +4364,10 @@
         <v>36</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>36</v>
@@ -4384,22 +4388,22 @@
         <v>36</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>36</v>
@@ -4407,10 +4411,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4421,7 +4425,7 @@
         <v>37</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>36</v>
@@ -4433,16 +4437,16 @@
         <v>36</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4492,22 +4496,22 @@
         <v>36</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>36</v>
@@ -4515,10 +4519,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4541,16 +4545,16 @@
         <v>36</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -4576,13 +4580,13 @@
         <v>36</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>36</v>
@@ -4600,7 +4604,7 @@
         <v>36</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>37</v>
@@ -4612,10 +4616,10 @@
         <v>36</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>36</v>
@@ -4623,10 +4627,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4649,16 +4653,16 @@
         <v>36</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4684,10 +4688,10 @@
         <v>36</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>36</v>
@@ -4708,7 +4712,7 @@
         <v>36</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>37</v>
@@ -4720,10 +4724,10 @@
         <v>36</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>36</v>
@@ -4731,10 +4735,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4757,16 +4761,16 @@
         <v>36</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4792,13 +4796,13 @@
         <v>36</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>36</v>
@@ -4816,7 +4820,7 @@
         <v>36</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>37</v>
@@ -4828,7 +4832,7 @@
         <v>36</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>36</v>
@@ -4839,10 +4843,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4865,13 +4869,13 @@
         <v>36</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4898,13 +4902,13 @@
         <v>36</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>36</v>
@@ -4922,7 +4926,7 @@
         <v>36</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>37</v>
@@ -4934,10 +4938,10 @@
         <v>36</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>36</v>
@@ -4945,10 +4949,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4959,7 +4963,7 @@
         <v>37</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>36</v>
@@ -4971,13 +4975,13 @@
         <v>36</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5028,22 +5032,22 @@
         <v>36</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>36</v>
@@ -5051,10 +5055,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5068,7 +5072,7 @@
         <v>38</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>36</v>
@@ -5077,16 +5081,16 @@
         <v>36</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5136,7 +5140,7 @@
         <v>36</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>37</v>
@@ -5148,10 +5152,10 @@
         <v>36</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>36</v>
@@ -5159,10 +5163,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5173,7 +5177,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>36</v>
@@ -5185,13 +5189,13 @@
         <v>36</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5242,13 +5246,13 @@
         <v>36</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>36</v>
@@ -5257,7 +5261,7 @@
         <v>36</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>36</v>
@@ -5265,14 +5269,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5291,16 +5295,16 @@
         <v>36</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5350,7 +5354,7 @@
         <v>36</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>37</v>
@@ -5362,10 +5366,10 @@
         <v>36</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>36</v>
@@ -5373,14 +5377,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5393,25 +5397,25 @@
         <v>36</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>36</v>
@@ -5460,7 +5464,7 @@
         <v>36</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>37</v>
@@ -5472,10 +5476,10 @@
         <v>36</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>36</v>
@@ -5483,10 +5487,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5500,7 +5504,7 @@
         <v>38</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>36</v>
@@ -5509,13 +5513,13 @@
         <v>36</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5542,13 +5546,13 @@
         <v>36</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>36</v>
@@ -5566,7 +5570,7 @@
         <v>36</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>37</v>
@@ -5578,10 +5582,10 @@
         <v>36</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>36</v>
@@ -5589,10 +5593,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5603,10 +5607,10 @@
         <v>37</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>36</v>
@@ -5615,13 +5619,13 @@
         <v>36</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5672,22 +5676,22 @@
         <v>36</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>36</v>
@@ -5695,10 +5699,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5709,10 +5713,10 @@
         <v>37</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>36</v>
@@ -5721,16 +5725,16 @@
         <v>36</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5780,22 +5784,22 @@
         <v>36</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>36</v>
@@ -5803,10 +5807,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5817,10 +5821,10 @@
         <v>37</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>36</v>
@@ -5829,16 +5833,16 @@
         <v>36</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -5888,22 +5892,22 @@
         <v>36</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>36</v>
@@ -5911,10 +5915,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5928,7 +5932,7 @@
         <v>38</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>36</v>
@@ -5937,13 +5941,13 @@
         <v>36</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5994,7 +5998,7 @@
         <v>36</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>37</v>
@@ -6006,10 +6010,10 @@
         <v>36</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>36</v>
@@ -6017,10 +6021,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6031,7 +6035,7 @@
         <v>37</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>36</v>
@@ -6043,13 +6047,13 @@
         <v>36</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6100,13 +6104,13 @@
         <v>36</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>36</v>
@@ -6115,7 +6119,7 @@
         <v>36</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>36</v>
@@ -6123,14 +6127,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -6149,16 +6153,16 @@
         <v>36</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6208,7 +6212,7 @@
         <v>36</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>37</v>
@@ -6220,10 +6224,10 @@
         <v>36</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>36</v>
@@ -6231,14 +6235,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6251,25 +6255,25 @@
         <v>36</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>36</v>
@@ -6318,7 +6322,7 @@
         <v>36</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>37</v>
@@ -6330,10 +6334,10 @@
         <v>36</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>36</v>
@@ -6341,10 +6345,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6352,10 +6356,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>36</v>
@@ -6367,13 +6371,13 @@
         <v>36</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6424,22 +6428,22 @@
         <v>36</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>36</v>
@@ -6447,10 +6451,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6461,10 +6465,10 @@
         <v>37</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>36</v>
@@ -6473,13 +6477,13 @@
         <v>36</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6530,22 +6534,22 @@
         <v>36</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>36</v>
@@ -6553,10 +6557,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6567,7 +6571,7 @@
         <v>37</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>36</v>
@@ -6579,13 +6583,13 @@
         <v>36</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6636,22 +6640,22 @@
         <v>36</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>36</v>
@@ -6659,10 +6663,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6685,13 +6689,13 @@
         <v>36</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6742,7 +6746,7 @@
         <v>36</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>37</v>
@@ -6754,10 +6758,10 @@
         <v>36</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>36</v>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="331">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -124,6 +124,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t/>
@@ -1252,7 +1366,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL51"/>
+  <dimension ref="A1:AL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1263,12 +1377,13 @@
   <cols>
     <col min="1" max="1" width="49.1328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="49.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="86.25" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1279,568 +1394,576 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="87.19921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="51.93359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="49.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="72.5234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AL1" t="s" s="2">
-        <v>36</v>
+      <c r="I1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>62</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1848,4927 +1971,5035 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>95</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q13" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="R13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>36</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>130</v>
+        <v>162</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>36</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>196</v>
+        <v>126</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>227</v>
+        <v>260</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>228</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>257</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>36</v>
+        <v>267</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>69</v>
+        <v>175</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>244</v>
+        <v>109</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>204</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>252</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>36</v>
+        <v>299</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>266</v>
+        <v>155</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>266</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>202</v>
+        <v>312</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>209</v>
+        <v>242</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>57</v>
+        <v>134</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>283</v>
+        <v>199</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>285</v>
+        <v>319</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>290</v>
+        <v>199</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>205</v>
+        <v>290</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>36</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL51">
+  <autoFilter ref="A1:AL52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6778,7 +7009,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="335">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -561,6 +561,34 @@
   </si>
   <si>
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A category of the service(s) that could be provided.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slicing for a mandatory clinical value.</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>HealthcareService.category:Clinical</t>
+  </si>
+  <si>
+    <t>Clinical</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -569,21 +597,6 @@
     &lt;code value="clinical"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A category of the service(s) that could be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
   </si>
   <si>
     <t>HealthcareService.type</t>
@@ -1366,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL52"/>
+  <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1403,7 +1416,7 @@
     <col min="26" max="26" width="51.93359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="49.1328125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2941,7 +2954,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>76</v>
@@ -2976,43 +2989,43 @@
         <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="T15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>168</v>
@@ -3030,32 +3043,34 @@
         <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>74</v>
@@ -3067,12 +3082,14 @@
         <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>74</v>
@@ -3082,7 +3099,7 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>74</v>
@@ -3097,13 +3114,13 @@
         <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>74</v>
@@ -3121,7 +3138,7 @@
         <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>75</v>
@@ -3136,32 +3153,32 @@
         <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>74</v>
@@ -3173,10 +3190,10 @@
         <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3203,13 +3220,13 @@
         <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>74</v>
@@ -3227,7 +3244,7 @@
         <v>74</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -3242,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>74</v>
@@ -3250,10 +3267,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3276,13 +3293,13 @@
         <v>84</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3309,13 +3326,13 @@
         <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>74</v>
@@ -3333,7 +3350,7 @@
         <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>75</v>
@@ -3348,18 +3365,18 @@
         <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3370,10 +3387,10 @@
         <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>74</v>
@@ -3382,13 +3399,13 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3439,13 +3456,13 @@
         <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>74</v>
@@ -3454,18 +3471,18 @@
         <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>74</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3488,7 +3505,7 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>204</v>
@@ -3496,9 +3513,7 @@
       <c r="M20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>74</v>
@@ -3547,7 +3562,7 @@
         <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -3562,7 +3577,7 @@
         <v>95</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>74</v>
@@ -3570,10 +3585,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3593,18 +3608,20 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>74</v>
@@ -3653,7 +3670,7 @@
         <v>74</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>75</v>
@@ -3668,7 +3685,7 @@
         <v>95</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>74</v>
@@ -3676,10 +3693,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3693,22 +3710,22 @@
         <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3759,7 +3776,7 @@
         <v>74</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3774,7 +3791,7 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -3782,10 +3799,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3796,7 +3813,7 @@
         <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
@@ -3805,20 +3822,18 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>74</v>
@@ -3867,13 +3882,13 @@
         <v>74</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>74</v>
@@ -3882,7 +3897,7 @@
         <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>74</v>
@@ -3890,10 +3905,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3907,7 +3922,7 @@
         <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>74</v>
@@ -3916,16 +3931,16 @@
         <v>74</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3975,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3990,7 +4005,7 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>74</v>
@@ -3998,10 +4013,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4015,7 +4030,7 @@
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>74</v>
@@ -4024,16 +4039,16 @@
         <v>74</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4059,13 +4074,13 @@
         <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>74</v>
@@ -4083,7 +4098,7 @@
         <v>74</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>75</v>
@@ -4098,7 +4113,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>74</v>
@@ -4106,10 +4121,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4132,15 +4147,17 @@
         <v>74</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>74</v>
@@ -4165,13 +4182,13 @@
         <v>74</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>74</v>
@@ -4189,7 +4206,7 @@
         <v>74</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -4204,7 +4221,7 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>74</v>
@@ -4226,7 +4243,7 @@
         <v>75</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4238,13 +4255,13 @@
         <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4295,22 +4312,22 @@
         <v>74</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>74</v>
@@ -4318,21 +4335,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4344,17 +4361,15 @@
         <v>74</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>74</v>
@@ -4403,22 +4418,22 @@
         <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>74</v>
@@ -4433,7 +4448,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4446,26 +4461,24 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="O29" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
       </c>
@@ -4513,7 +4526,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4528,7 +4541,7 @@
         <v>134</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -4536,33 +4549,33 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>254</v>
@@ -4570,8 +4583,12 @@
       <c r="M30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4595,46 +4612,46 @@
         <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -4668,7 +4685,7 @@
         <v>74</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>258</v>
@@ -4676,9 +4693,7 @@
       <c r="M31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4703,10 +4718,10 @@
         <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4742,7 +4757,7 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -4750,10 +4765,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4764,7 +4779,7 @@
         <v>75</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4776,16 +4791,16 @@
         <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4811,13 +4826,13 @@
         <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>266</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>74</v>
@@ -4835,13 +4850,13 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
@@ -4850,7 +4865,7 @@
         <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -4858,10 +4873,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4887,13 +4902,13 @@
         <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -4919,13 +4934,13 @@
         <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>74</v>
@@ -4943,7 +4958,7 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
@@ -4958,7 +4973,7 @@
         <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>74</v>
@@ -4966,10 +4981,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4995,13 +5010,13 @@
         <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5027,13 +5042,13 @@
         <v>74</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>108</v>
+        <v>277</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>74</v>
@@ -5051,7 +5066,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -5066,7 +5081,7 @@
         <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5108,7 +5123,9 @@
       <c r="M35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
@@ -5133,13 +5150,13 @@
         <v>74</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>282</v>
+        <v>109</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>74</v>
@@ -5172,7 +5189,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
@@ -5180,10 +5197,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5194,7 +5211,7 @@
         <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5206,13 +5223,13 @@
         <v>74</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5239,13 +5256,13 @@
         <v>74</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>74</v>
+        <v>286</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>74</v>
@@ -5263,13 +5280,13 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>74</v>
@@ -5278,7 +5295,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
@@ -5286,10 +5303,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5300,10 +5317,10 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>74</v>
@@ -5312,17 +5329,15 @@
         <v>74</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
         <v>289</v>
       </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5371,13 +5386,13 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>74</v>
@@ -5386,7 +5401,7 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
@@ -5394,10 +5409,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5408,10 +5423,10 @@
         <v>75</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>74</v>
@@ -5420,15 +5435,17 @@
         <v>74</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>74</v>
@@ -5477,22 +5494,22 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
@@ -5500,21 +5517,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>74</v>
@@ -5526,17 +5543,15 @@
         <v>74</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5585,22 +5600,22 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -5608,14 +5623,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5628,26 +5643,24 @@
         <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
@@ -5710,7 +5723,7 @@
         <v>134</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -5718,14 +5731,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -5735,25 +5748,29 @@
         <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I41" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>74</v>
       </c>
@@ -5777,13 +5794,13 @@
         <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>74</v>
@@ -5801,7 +5818,7 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
@@ -5813,10 +5830,10 @@
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>74</v>
@@ -5824,10 +5841,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5838,7 +5855,7 @@
         <v>75</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>84</v>
@@ -5850,13 +5867,13 @@
         <v>74</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5883,13 +5900,13 @@
         <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>74</v>
@@ -5907,13 +5924,13 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>74</v>
@@ -5922,7 +5939,7 @@
         <v>95</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -5930,10 +5947,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5956,7 +5973,7 @@
         <v>74</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>304</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>305</v>
@@ -5964,9 +5981,7 @@
       <c r="M43" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N43" t="s" s="2">
-        <v>307</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
@@ -6015,7 +6030,7 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>75</v>
@@ -6030,7 +6045,7 @@
         <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6038,10 +6053,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6064,7 +6079,7 @@
         <v>74</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>309</v>
@@ -6073,7 +6088,7 @@
         <v>310</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6123,7 +6138,7 @@
         <v>74</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>75</v>
@@ -6138,7 +6153,7 @@
         <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6146,10 +6161,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6160,7 +6175,7 @@
         <v>75</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>84</v>
@@ -6172,15 +6187,17 @@
         <v>74</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>74</v>
@@ -6229,13 +6246,13 @@
         <v>74</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>74</v>
@@ -6244,7 +6261,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6252,10 +6269,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6266,10 +6283,10 @@
         <v>75</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>74</v>
@@ -6278,13 +6295,13 @@
         <v>74</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6335,22 +6352,22 @@
         <v>74</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>242</v>
+        <v>315</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6358,21 +6375,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6384,17 +6401,15 @@
         <v>74</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>128</v>
+        <v>203</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>74</v>
@@ -6443,22 +6458,22 @@
         <v>74</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>74</v>
@@ -6466,14 +6481,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -6486,26 +6501,24 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>128</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="O48" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6553,7 +6566,7 @@
         <v>74</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>75</v>
@@ -6568,7 +6581,7 @@
         <v>134</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -6576,42 +6589,46 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6659,22 +6676,22 @@
         <v>74</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>256</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>74</v>
@@ -6682,10 +6699,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6693,13 +6710,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>74</v>
@@ -6708,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>322</v>
@@ -6765,10 +6782,10 @@
         <v>74</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>83</v>
@@ -6780,7 +6797,7 @@
         <v>95</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>74</v>
@@ -6805,7 +6822,7 @@
         <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>74</v>
@@ -6814,13 +6831,13 @@
         <v>74</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>199</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6886,7 +6903,7 @@
         <v>95</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>74</v>
@@ -6894,10 +6911,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6908,7 +6925,7 @@
         <v>75</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -6920,7 +6937,7 @@
         <v>74</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>329</v>
@@ -6977,13 +6994,13 @@
         <v>74</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>74</v>
@@ -6992,14 +7009,120 @@
         <v>95</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
       </c>
     </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL52">
+  <autoFilter ref="A1:AL53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7009,7 +7132,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-clinical-service.xlsx
+++ b/StructureDefinition-bc-clinical-service.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
